--- a/Tech Module/Programming Fundamentals/00. Technlogies-Fundamentals-Courses-Schedules.xlsx
+++ b/Tech Module/Programming Fundamentals/00. Technlogies-Fundamentals-Courses-Schedules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
   <si>
     <t>Part I - Programming Fundamentals</t>
   </si>
@@ -380,12 +380,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,12 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,83 +527,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -603,83 +610,80 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,7 +1255,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,15 +1270,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1300,184 +1304,184 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>42877</v>
       </c>
-      <c r="D3" s="36" t="str">
+      <c r="D3" s="35" t="str">
         <f t="shared" ref="D3:D33" si="0">TEXT(C3,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="E3" s="37" t="str">
+      <c r="E3" s="36" t="str">
         <f>IF(OR(D3="Monday", D3="Wednesday", D3="Thursday"),"14:00-18:00","18:00-22:00")</f>
         <v>14:00-18:00</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>42877</v>
       </c>
-      <c r="D4" s="36" t="str">
+      <c r="D4" s="35" t="str">
         <f>TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="E4" s="37" t="str">
+      <c r="E4" s="36" t="str">
         <f t="shared" ref="E4:E38" si="1">IF(OR(D4="Monday", D4="Wednesday", D4="Thursday"),"14:00-18:00","18:00-22:00")</f>
         <v>14:00-18:00</v>
       </c>
-      <c r="F4" s="39" t="str">
+      <c r="F4" s="38" t="str">
         <f>IF(OR(D6="Monday", D6="Wednesday"),"Nakov","Team")</f>
         <v>Nakov</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>42878</v>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E5" s="37" t="str">
+      <c r="E5" s="36" t="str">
         <f t="shared" si="1"/>
         <v>18:00-22:00</v>
       </c>
-      <c r="F5" s="43" t="str">
+      <c r="F5" s="42" t="str">
         <f t="shared" ref="F5:F31" si="2">IF(OR(D5="Monday", D5="Wednesday"),"Nakov","Team")</f>
         <v>Team</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>42879</v>
       </c>
-      <c r="D6" s="37" t="str">
+      <c r="D6" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="E6" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>14:00-18:00</v>
-      </c>
-      <c r="F6" s="43" t="str">
+      <c r="E6" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>14:00-18:00</v>
+      </c>
+      <c r="F6" s="42" t="str">
         <f t="shared" si="2"/>
         <v>Nakov</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>42880</v>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="E7" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>14:00-18:00</v>
-      </c>
-      <c r="F7" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v>Team</v>
-      </c>
-      <c r="G7" s="45" t="s">
+      <c r="E7" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>14:00-18:00</v>
+      </c>
+      <c r="F7" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>Team</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>42881</v>
       </c>
-      <c r="D8" s="36" t="str">
+      <c r="D8" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="E8" s="37" t="str">
+      <c r="E8" s="36" t="str">
         <f t="shared" si="1"/>
         <v>18:00-22:00</v>
       </c>
-      <c r="F8" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v>Team</v>
-      </c>
-      <c r="G8" s="48" t="s">
+      <c r="F8" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>Team</v>
+      </c>
+      <c r="G8" s="47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="34">
         <f>C3 + 7</f>
         <v>42884</v>
       </c>
-      <c r="D9" s="53" t="str">
+      <c r="D9" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="E9" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>14:00-18:00</v>
-      </c>
-      <c r="F9" s="55" t="str">
+      <c r="E9" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>14:00-18:00</v>
+      </c>
+      <c r="F9" s="37" t="str">
         <f t="shared" si="2"/>
         <v>Nakov</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="52" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1506,30 +1510,32 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="34">
         <f>C6 + 7</f>
         <v>42886</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="E11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>14:00-18:00</v>
-      </c>
-      <c r="F11" s="17" t="str">
+      <c r="E11" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>14:00-18:00</v>
+      </c>
+      <c r="F11" s="37" t="str">
         <f t="shared" si="2"/>
         <v>Nakov</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="49" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1554,7 +1560,9 @@
         <f t="shared" si="2"/>
         <v>Team</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="54" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1706,7 +1714,7 @@
       </c>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1756,7 +1764,7 @@
       </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1831,7 +1839,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -1881,7 +1889,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1956,7 +1964,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
@@ -2100,7 +2108,7 @@
         <f t="shared" si="1"/>
         <v>14:00-18:00</v>
       </c>
-      <c r="F34" s="22" t="str">
+      <c r="F34" s="21" t="str">
         <f t="shared" ref="F34:F38" si="7">IF(OR(D34="Monday", D34="Wednesday"),"Nakov","Team")</f>
         <v>Nakov</v>
       </c>
@@ -2125,7 +2133,7 @@
         <f t="shared" si="1"/>
         <v>18:00-22:00</v>
       </c>
-      <c r="F35" s="22" t="str">
+      <c r="F35" s="21" t="str">
         <f t="shared" si="7"/>
         <v>Team</v>
       </c>
@@ -2150,7 +2158,7 @@
         <f t="shared" si="1"/>
         <v>14:00-18:00</v>
       </c>
-      <c r="F36" s="22" t="str">
+      <c r="F36" s="21" t="str">
         <f t="shared" si="7"/>
         <v>Nakov</v>
       </c>
@@ -2175,7 +2183,7 @@
         <f t="shared" si="1"/>
         <v>14:00-18:00</v>
       </c>
-      <c r="F37" s="22" t="str">
+      <c r="F37" s="21" t="str">
         <f t="shared" si="7"/>
         <v>Team</v>
       </c>
@@ -2199,7 +2207,7 @@
         <f t="shared" si="1"/>
         <v>18:00-22:00</v>
       </c>
-      <c r="F38" s="22" t="str">
+      <c r="F38" s="21" t="str">
         <f t="shared" si="7"/>
         <v>Team</v>
       </c>
@@ -2237,15 +2245,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2300,7 +2308,7 @@
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2320,7 +2328,7 @@
         <f t="shared" ref="E5:E37" si="1">IF(OR(D5="Monday", D5="Wednesday", D5="Thursday"),"14:00-18:00","18:00-22:00")</f>
         <v>14:00-18:00</v>
       </c>
-      <c r="F5" s="21" t="str">
+      <c r="F5" s="20" t="str">
         <f>IF(OR(D7="Monday", D7="Wednesday"),"Nakov","Team")</f>
         <v>Nakov</v>
       </c>
@@ -2555,7 +2563,7 @@
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2709,7 +2717,7 @@
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -2763,7 +2771,7 @@
       <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="15">
@@ -2787,7 +2795,7 @@
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="15">
@@ -2815,13 +2823,13 @@
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="21"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="15">
@@ -2845,7 +2853,7 @@
       <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="15">
@@ -2869,7 +2877,7 @@
       <c r="A31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C31" s="15">
@@ -2893,7 +2901,7 @@
       <c r="A32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="15">
@@ -2914,20 +2922,20 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="26"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C34" s="15">
@@ -2946,11 +2954,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="15">
@@ -3004,7 +3012,7 @@
       <c r="C37" s="15">
         <v>42980</v>
       </c>
-      <c r="D37" s="28" t="str">
+      <c r="D37" s="27" t="str">
         <f>TEXT(C37,"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -3012,11 +3020,11 @@
         <f t="shared" si="1"/>
         <v>18:00-22:00</v>
       </c>
-      <c r="F37" s="29" t="str">
+      <c r="F37" s="28" t="str">
         <f>IF(OR(D37="Monday", D37="Wednesday"),"Nakov","Team")</f>
         <v>Team</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Tech Module/Programming Fundamentals/00. Technlogies-Fundamentals-Courses-Schedules.xlsx
+++ b/Tech Module/Programming Fundamentals/00. Technlogies-Fundamentals-Courses-Schedules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
   <si>
     <t>Part I - Programming Fundamentals</t>
   </si>
@@ -380,12 +380,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,80 +535,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -610,76 +618,79 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1255,7 +1266,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,15 +1281,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1560,34 +1571,36 @@
         <f t="shared" si="2"/>
         <v>Team</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="53" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="34">
         <f t="shared" si="3"/>
         <v>42888</v>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="35" t="str">
         <f>TEXT(C13,"dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="36" t="str">
         <f t="shared" si="1"/>
         <v>18:00-22:00</v>
       </c>
-      <c r="F13" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>Team</v>
-      </c>
-      <c r="G13" s="15"/>
+      <c r="F13" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>Team</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2245,15 +2258,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/Tech Module/Programming Fundamentals/00. Technlogies-Fundamentals-Courses-Schedules.xlsx
+++ b/Tech Module/Programming Fundamentals/00. Technlogies-Fundamentals-Courses-Schedules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
   <si>
     <t>Part I - Programming Fundamentals</t>
   </si>
@@ -380,12 +380,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,80 +543,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -618,79 +626,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1265,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,15 +1292,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1598,7 +1609,7 @@
         <f t="shared" si="2"/>
         <v>Team</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="54" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1625,7 +1636,9 @@
         <f t="shared" si="2"/>
         <v>Nakov</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="56" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -2258,15 +2271,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
